--- a/покупки/себестоимость.xlsx
+++ b/покупки/себестоимость.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\Ozon_upload\покупки\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B85991F-439C-441F-8554-E8A1DC558F4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74169B9F-05D7-47C0-89FE-8A4267BC7A48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
   <si>
     <t>Pet Film, 60cm*100m</t>
   </si>
@@ -64,19 +64,139 @@
   </si>
   <si>
     <t>1 шт принт</t>
+  </si>
+  <si>
+    <t>Себестоимость</t>
+  </si>
+  <si>
+    <t>упаковка</t>
+  </si>
+  <si>
+    <t>цена за лист</t>
+  </si>
+  <si>
+    <t>Цена от
+100 кг</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Цена от </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">50 кг </t>
+    </r>
+  </si>
+  <si>
+    <t>кг</t>
+  </si>
+  <si>
+    <t>количество листов</t>
+  </si>
+  <si>
+    <t>~74 листа 220 гр/м2</t>
+  </si>
+  <si>
+    <t>Картон Хром Эрзац</t>
+  </si>
+  <si>
+    <t>пакет</t>
+  </si>
+  <si>
+    <t>rolls</t>
+  </si>
+  <si>
+    <t>ink</t>
+  </si>
+  <si>
+    <t>moth consumption</t>
+  </si>
+  <si>
+    <t>rolls in year</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>pcs in roll</t>
+  </si>
+  <si>
+    <t>cost 530-550pcs</t>
+  </si>
+  <si>
+    <t>delivery</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>Filters for Air Purifier Model: S1002</t>
+  </si>
+  <si>
+    <t>Print head: XP600</t>
+  </si>
+  <si>
+    <t>Pet Film, 30cm*100m</t>
+  </si>
+  <si>
+    <t>CMYK ink</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>quantity</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -99,10 +219,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -384,10 +519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:N42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -548,7 +683,7 @@
         <v>11</v>
       </c>
       <c r="K5" s="1">
-        <v>900</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -557,7 +692,7 @@
       </c>
       <c r="L6">
         <f>SUM(L2:L4)/K5</f>
-        <v>14.9</v>
+        <v>13.41</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -566,14 +701,303 @@
         <v>10000</v>
       </c>
       <c r="F7">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G7">
         <v>2</v>
       </c>
       <c r="H7">
         <f>E7/F7*2</f>
-        <v>952.38095238095241</v>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1">
+        <v>17</v>
+      </c>
+      <c r="D12">
+        <f>B12*C12</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" s="1">
+        <v>17</v>
+      </c>
+      <c r="D13">
+        <f>B13*C13</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" s="1">
+        <v>6</v>
+      </c>
+      <c r="D14">
+        <f>B14*C14</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1">
+        <v>19</v>
+      </c>
+      <c r="D15">
+        <f>B15*C15</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16">
+        <f>1/43</f>
+        <v>2.3255813953488372E-2</v>
+      </c>
+      <c r="C16" s="1">
+        <v>200</v>
+      </c>
+      <c r="D16">
+        <f>ROUND(B16*C16,0)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17">
+        <v>6</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17">
+        <f>B17*C17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18">
+        <f>SUM(D12:D17)</f>
+        <v>87</v>
+      </c>
+      <c r="K18">
+        <v>300</v>
+      </c>
+      <c r="L18">
+        <v>0.44</v>
+      </c>
+      <c r="M18">
+        <v>40</v>
+      </c>
+      <c r="N18">
+        <f>K18*L18-M18</f>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20">
+        <f>(D18*D19)/550</f>
+        <v>0.23727272727272727</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>550</v>
+      </c>
+      <c r="B27">
+        <v>4000</v>
+      </c>
+      <c r="C27">
+        <v>48000</v>
+      </c>
+      <c r="D27">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <f>2*D27/12</f>
+        <v>14.666666666666666</v>
+      </c>
+      <c r="C29">
+        <f>D27/12</f>
+        <v>7.333333333333333</v>
+      </c>
+      <c r="D29">
+        <f>2.3*D27/12</f>
+        <v>16.866666666666664</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F35" s="2">
+        <v>167.7</v>
+      </c>
+      <c r="G35" s="2">
+        <v>154.1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>74</v>
+      </c>
+      <c r="C36">
+        <f>B36*D36</f>
+        <v>7400</v>
+      </c>
+      <c r="D36">
+        <v>100</v>
+      </c>
+      <c r="E36">
+        <f>D36*G35</f>
+        <v>15410</v>
+      </c>
+      <c r="H36">
+        <f>E36/C36</f>
+        <v>2.0824324324324324</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D37" s="2"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <f>D20*100+H36+A40+B33</f>
+        <v>33.30970515970516</v>
       </c>
     </row>
   </sheetData>

--- a/покупки/себестоимость.xlsx
+++ b/покупки/себестоимость.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\Ozon_upload\покупки\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74169B9F-05D7-47C0-89FE-8A4267BC7A48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0175F0F7-FD4C-4840-A2E2-3A627CF19CBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="49">
   <si>
     <t>Pet Film, 60cm*100m</t>
   </si>
@@ -164,6 +165,33 @@
   </si>
   <si>
     <t>quantity</t>
+  </si>
+  <si>
+    <t>INK</t>
+  </si>
+  <si>
+    <t>DIMENSION (CM)</t>
+  </si>
+  <si>
+    <t>VOLUME(CBM)</t>
+  </si>
+  <si>
+    <t>NET WEIGHT(KG)</t>
+  </si>
+  <si>
+    <t>GROSS WEIGHT (KG)</t>
+  </si>
+  <si>
+    <t>TOTAL VOLUME(CBM)</t>
+  </si>
+  <si>
+    <t>TOTAL NET WEIGHT(KG)</t>
+  </si>
+  <si>
+    <t>TOTAL GROSS WEIGHT (KG)</t>
+  </si>
+  <si>
+    <t>QTY ( PCS )</t>
   </si>
 </sst>
 </file>
@@ -519,10 +547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N42"/>
+  <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12:Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -530,6 +558,12 @@
     <col min="1" max="1" width="22.7109375" customWidth="1"/>
     <col min="4" max="4" width="16.7109375" customWidth="1"/>
     <col min="10" max="10" width="24.140625" customWidth="1"/>
+    <col min="14" max="14" width="6.28515625" customWidth="1"/>
+    <col min="15" max="15" width="15.28515625" customWidth="1"/>
+    <col min="16" max="16" width="17" customWidth="1"/>
+    <col min="17" max="17" width="19.140625" customWidth="1"/>
+    <col min="18" max="18" width="20.42578125" customWidth="1"/>
+    <col min="19" max="19" width="22.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -801,7 +835,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -814,7 +848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -822,21 +856,8 @@
         <f>SUM(D12:D17)</f>
         <v>87</v>
       </c>
-      <c r="K18">
-        <v>300</v>
-      </c>
-      <c r="L18">
-        <v>0.44</v>
-      </c>
-      <c r="M18">
-        <v>40</v>
-      </c>
-      <c r="N18">
-        <f>K18*L18-M18</f>
-        <v>92</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -844,7 +865,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -853,12 +874,12 @@
         <v>0.23727272727272727</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -872,7 +893,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>550</v>
       </c>
@@ -886,7 +907,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -900,7 +921,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B29">
         <f>2*D27/12</f>
         <v>14.666666666666666</v>
@@ -1003,4 +1024,87 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF2D480-7B92-43D5-BA6D-FC174D0FE1B1}">
+  <dimension ref="A1:L2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" customWidth="1"/>
+    <col min="8" max="8" width="21.42578125" customWidth="1"/>
+    <col min="9" max="9" width="24.42578125" customWidth="1"/>
+    <col min="10" max="10" width="31.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2">
+        <v>80</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <v>9</v>
+      </c>
+      <c r="F2">
+        <v>26</v>
+      </c>
+      <c r="G2">
+        <f>B2*D2*E2*F2/1000000</f>
+        <v>0.18720000000000001</v>
+      </c>
+      <c r="H2">
+        <f>B2*1</f>
+        <v>80</v>
+      </c>
+      <c r="I2">
+        <f>ROUNDUP(H2/0.87,1)</f>
+        <v>92</v>
+      </c>
+      <c r="J2">
+        <f>G2</f>
+        <v>0.18720000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/покупки/себестоимость.xlsx
+++ b/покупки/себестоимость.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\Ozon_upload\покупки\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0175F0F7-FD4C-4840-A2E2-3A627CF19CBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE32317B-743E-469A-ABE1-620E3E578DF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="07.05.2025" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="56">
   <si>
     <t>Pet Film, 60cm*100m</t>
   </si>
@@ -192,6 +193,29 @@
   </si>
   <si>
     <t>QTY ( PCS )</t>
+  </si>
+  <si>
+    <t>размер корбки обьем</t>
+  </si>
+  <si>
+    <t>HOT MELT GLUE</t>
+  </si>
+  <si>
+    <t>Order Max Uzkikh 07.05.2025</t>
+  </si>
+  <si>
+    <t>TOTAL
+VOLUME</t>
+  </si>
+  <si>
+    <t>TOTAL NET
+WEIGHT(KG)</t>
+  </si>
+  <si>
+    <t>INK C</t>
+  </si>
+  <si>
+    <t>INK White</t>
   </si>
 </sst>
 </file>
@@ -235,7 +259,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -243,11 +267,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -266,6 +305,13 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -550,7 +596,7 @@
   <dimension ref="A1:L42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12:Q13"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1028,14 +1074,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF2D480-7B92-43D5-BA6D-FC174D0FE1B1}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="20.140625" customWidth="1"/>
     <col min="2" max="2" width="17.140625" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
     <col min="6" max="6" width="15.5703125" customWidth="1"/>
@@ -1045,7 +1092,7 @@
     <col min="10" max="10" width="31.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>48</v>
       </c>
@@ -1070,38 +1117,299 @@
       <c r="L1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>40</v>
       </c>
       <c r="B2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="D2">
         <v>10</v>
       </c>
       <c r="E2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G2">
         <f>B2*D2*E2*F2/1000000</f>
-        <v>0.18720000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="H2">
         <f>B2*1</f>
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I2">
-        <f>ROUNDUP(H2/0.87,1)</f>
-        <v>92</v>
+        <v>1.08</v>
       </c>
       <c r="J2">
         <f>G2</f>
-        <v>0.18720000000000001</v>
+        <v>0.05</v>
+      </c>
+      <c r="O2">
+        <f>490*260*400/1000000000</f>
+        <v>5.0959999999999998E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>61</v>
+      </c>
+      <c r="E3">
+        <v>15</v>
+      </c>
+      <c r="F3">
+        <v>14</v>
+      </c>
+      <c r="G3">
+        <f>B3*D3*E3*F3/1000000</f>
+        <v>2.562E-2</v>
+      </c>
+      <c r="H3">
+        <f>B3*14</f>
+        <v>28</v>
+      </c>
+      <c r="I3" s="7">
+        <v>7.35</v>
+      </c>
+      <c r="J3">
+        <f>G3</f>
+        <v>2.562E-2</v>
+      </c>
+      <c r="O3">
+        <f>610*145*290/1000000000</f>
+        <v>2.56505E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>47</v>
+      </c>
+      <c r="E4">
+        <v>32</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <f>B4*D4*E4*F4/1000000</f>
+        <v>3.0079999999999998E-3</v>
+      </c>
+      <c r="H4">
+        <f>B4*1</f>
+        <v>1</v>
+      </c>
+      <c r="I4" s="7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J4">
+        <f>G4</f>
+        <v>3.0079999999999998E-3</v>
+      </c>
+      <c r="O4">
+        <f>470*320*200/1000000000</f>
+        <v>3.0079999999999999E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{268E0AD0-41C1-4BE2-B5AE-4F6D39A38DED}">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" customWidth="1"/>
+    <col min="8" max="8" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="7">
+        <v>79</v>
+      </c>
+      <c r="C2" s="8">
+        <v>17</v>
+      </c>
+      <c r="D2" s="7">
+        <f>B2*C2</f>
+        <v>1343</v>
+      </c>
+      <c r="E2" s="7">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="F2" s="7">
+        <f>B2*E2</f>
+        <v>0.19750000000000001</v>
+      </c>
+      <c r="G2" s="7">
+        <v>1.08</v>
+      </c>
+      <c r="H2" s="7">
+        <f>B2*G2</f>
+        <v>85.320000000000007</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="7">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8">
+        <v>17</v>
+      </c>
+      <c r="D3" s="7">
+        <f>B3*C3</f>
+        <v>17</v>
+      </c>
+      <c r="E3" s="7">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="F3" s="7">
+        <f>B3*E3</f>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="G3" s="7">
+        <v>1.08</v>
+      </c>
+      <c r="H3" s="7">
+        <f>B3*G3</f>
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="7">
+        <v>20</v>
+      </c>
+      <c r="C4" s="8">
+        <v>35</v>
+      </c>
+      <c r="D4" s="7">
+        <f t="shared" ref="D4:D5" si="0">B4*C4</f>
+        <v>700</v>
+      </c>
+      <c r="E4" s="7">
+        <v>1.281E-2</v>
+      </c>
+      <c r="F4" s="7">
+        <f t="shared" ref="F4:F5" si="1">B4*E4</f>
+        <v>0.25619999999999998</v>
+      </c>
+      <c r="G4" s="7">
+        <v>7.35</v>
+      </c>
+      <c r="H4" s="7">
+        <f>B4*G4</f>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="7">
+        <v>100</v>
+      </c>
+      <c r="C5" s="8">
+        <v>6</v>
+      </c>
+      <c r="D5" s="7">
+        <f t="shared" si="0"/>
+        <v>600</v>
+      </c>
+      <c r="E5" s="7">
+        <v>3.0079999999999998E-3</v>
+      </c>
+      <c r="F5" s="7">
+        <f t="shared" si="1"/>
+        <v>0.30079999999999996</v>
+      </c>
+      <c r="G5" s="7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H5" s="7">
+        <f>B5*G5</f>
+        <v>110.00000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7">
+        <f>SUM(D2:D5)</f>
+        <v>2660</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7">
+        <f>SUM(F2:F5)</f>
+        <v>0.7569999999999999</v>
+      </c>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7">
+        <f>SUM(H2:H5)</f>
+        <v>343.40000000000003</v>
       </c>
     </row>
   </sheetData>

--- a/покупки/себестоимость.xlsx
+++ b/покупки/себестоимость.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\Ozon_upload\покупки\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE32317B-743E-469A-ABE1-620E3E578DF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E744C071-9587-4E92-8B70-F819ABCAC741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="07.05.2025" sheetId="3" r:id="rId3"/>
+    <sheet name="01.07.2025" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="60">
   <si>
     <t>Pet Film, 60cm*100m</t>
   </si>
@@ -216,6 +217,18 @@
   </si>
   <si>
     <t>INK White</t>
+  </si>
+  <si>
+    <t>Order Max Uzkikh 01.07.2025</t>
+  </si>
+  <si>
+    <t>INK M</t>
+  </si>
+  <si>
+    <t>INK Y</t>
+  </si>
+  <si>
+    <t>INK K</t>
   </si>
 </sst>
 </file>
@@ -596,7 +609,7 @@
   <dimension ref="A1:L42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1238,8 +1251,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{268E0AD0-41C1-4BE2-B5AE-4F6D39A38DED}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1415,4 +1428,272 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86D1632C-ED0D-4846-AA0B-3BC8480B4571}">
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.42578125" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="8" max="8" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="7">
+        <v>40</v>
+      </c>
+      <c r="C2" s="8">
+        <v>14</v>
+      </c>
+      <c r="D2" s="7">
+        <f>B2*C2</f>
+        <v>560</v>
+      </c>
+      <c r="E2" s="7">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="F2" s="7">
+        <f>B2*E2</f>
+        <v>0.1</v>
+      </c>
+      <c r="G2" s="7">
+        <v>1.08</v>
+      </c>
+      <c r="H2" s="7">
+        <f>B2*G2</f>
+        <v>43.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="7">
+        <v>2</v>
+      </c>
+      <c r="C3" s="8">
+        <v>15</v>
+      </c>
+      <c r="D3" s="7">
+        <f>B3*C3</f>
+        <v>30</v>
+      </c>
+      <c r="E3" s="7">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="F3" s="7">
+        <f>B3*E3</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G3" s="7">
+        <v>1.08</v>
+      </c>
+      <c r="H3" s="7">
+        <f>B3*G3</f>
+        <v>2.16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="7">
+        <v>2</v>
+      </c>
+      <c r="C4" s="8">
+        <v>15</v>
+      </c>
+      <c r="D4" s="7">
+        <f>B4*C4</f>
+        <v>30</v>
+      </c>
+      <c r="E4" s="7">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="F4" s="7">
+        <f>B4*E4</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G4" s="7">
+        <v>1.08</v>
+      </c>
+      <c r="H4" s="7">
+        <f>B4*G4</f>
+        <v>2.16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="7">
+        <v>2</v>
+      </c>
+      <c r="C5" s="8">
+        <v>15</v>
+      </c>
+      <c r="D5" s="7">
+        <f>B5*C5</f>
+        <v>30</v>
+      </c>
+      <c r="E5" s="7">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="F5" s="7">
+        <f>B5*E5</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G5" s="7">
+        <v>1.08</v>
+      </c>
+      <c r="H5" s="7">
+        <f>B5*G5</f>
+        <v>2.16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="7">
+        <v>2</v>
+      </c>
+      <c r="C6" s="8">
+        <v>15</v>
+      </c>
+      <c r="D6" s="7">
+        <f>B6*C6</f>
+        <v>30</v>
+      </c>
+      <c r="E6" s="7">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="F6" s="7">
+        <f>B6*E6</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G6" s="7">
+        <v>1.08</v>
+      </c>
+      <c r="H6" s="7">
+        <f>B6*G6</f>
+        <v>2.16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="7">
+        <v>12</v>
+      </c>
+      <c r="C7" s="8">
+        <v>29</v>
+      </c>
+      <c r="D7" s="7">
+        <f t="shared" ref="D7:D8" si="0">B7*C7</f>
+        <v>348</v>
+      </c>
+      <c r="E7" s="7">
+        <v>1.281E-2</v>
+      </c>
+      <c r="F7" s="7">
+        <f t="shared" ref="F7:F8" si="1">B7*E7</f>
+        <v>0.15372</v>
+      </c>
+      <c r="G7" s="7">
+        <v>7.35</v>
+      </c>
+      <c r="H7" s="7">
+        <f>B7*G7</f>
+        <v>88.199999999999989</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="7">
+        <v>80</v>
+      </c>
+      <c r="C8" s="8">
+        <v>5</v>
+      </c>
+      <c r="D8" s="7">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="E8" s="7">
+        <v>3.0079999999999998E-3</v>
+      </c>
+      <c r="F8" s="7">
+        <f t="shared" si="1"/>
+        <v>0.24063999999999999</v>
+      </c>
+      <c r="G8" s="7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H8" s="7">
+        <f>B8*G8</f>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7">
+        <f>SUM(D2:D8)</f>
+        <v>1428</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7">
+        <f>SUM(F2:F8)</f>
+        <v>0.51436000000000004</v>
+      </c>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7">
+        <f>SUM(H2:H8)</f>
+        <v>228.03999999999996</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/покупки/себестоимость.xlsx
+++ b/покупки/себестоимость.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\Ozon_upload\покупки\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E744C071-9587-4E92-8B70-F819ABCAC741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29F01993-D7D8-41A4-94AD-48F2F1B37E3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="07.05.2025" sheetId="3" r:id="rId3"/>
     <sheet name="01.07.2025" sheetId="4" r:id="rId4"/>
+    <sheet name="25.07.2025" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="63">
   <si>
     <t>Pet Film, 60cm*100m</t>
   </si>
@@ -229,6 +230,15 @@
   </si>
   <si>
     <t>INK K</t>
+  </si>
+  <si>
+    <t>Order Max Uzkikh 25.07.2025</t>
+  </si>
+  <si>
+    <t>Ultrasonic Printhead Cleaning Machine</t>
+  </si>
+  <si>
+    <t>Cleaning Solution</t>
   </si>
 </sst>
 </file>
@@ -299,7 +309,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -325,6 +335,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -609,7 +623,7 @@
   <dimension ref="A1:L42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1434,8 +1448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86D1632C-ED0D-4846-AA0B-3BC8480B4571}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H9" sqref="A1:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1445,7 +1459,7 @@
     <col min="8" max="8" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>56</v>
       </c>
@@ -1496,7 +1510,7 @@
         <v>1.08</v>
       </c>
       <c r="H2" s="7">
-        <f>B2*G2</f>
+        <f t="shared" ref="H2:H8" si="0">B2*G2</f>
         <v>43.2</v>
       </c>
     </row>
@@ -1525,7 +1539,7 @@
         <v>1.08</v>
       </c>
       <c r="H3" s="7">
-        <f>B3*G3</f>
+        <f t="shared" si="0"/>
         <v>2.16</v>
       </c>
     </row>
@@ -1554,7 +1568,7 @@
         <v>1.08</v>
       </c>
       <c r="H4" s="7">
-        <f>B4*G4</f>
+        <f t="shared" si="0"/>
         <v>2.16</v>
       </c>
     </row>
@@ -1583,7 +1597,7 @@
         <v>1.08</v>
       </c>
       <c r="H5" s="7">
-        <f>B5*G5</f>
+        <f t="shared" si="0"/>
         <v>2.16</v>
       </c>
     </row>
@@ -1612,7 +1626,7 @@
         <v>1.08</v>
       </c>
       <c r="H6" s="7">
-        <f>B6*G6</f>
+        <f t="shared" si="0"/>
         <v>2.16</v>
       </c>
     </row>
@@ -1627,21 +1641,21 @@
         <v>29</v>
       </c>
       <c r="D7" s="7">
-        <f t="shared" ref="D7:D8" si="0">B7*C7</f>
+        <f t="shared" ref="D7:D8" si="1">B7*C7</f>
         <v>348</v>
       </c>
       <c r="E7" s="7">
         <v>1.281E-2</v>
       </c>
       <c r="F7" s="7">
-        <f t="shared" ref="F7:F8" si="1">B7*E7</f>
+        <f t="shared" ref="F7:F8" si="2">B7*E7</f>
         <v>0.15372</v>
       </c>
       <c r="G7" s="7">
         <v>7.35</v>
       </c>
       <c r="H7" s="7">
-        <f>B7*G7</f>
+        <f t="shared" si="0"/>
         <v>88.199999999999989</v>
       </c>
     </row>
@@ -1656,21 +1670,21 @@
         <v>5</v>
       </c>
       <c r="D8" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>400</v>
       </c>
       <c r="E8" s="7">
         <v>3.0079999999999998E-3</v>
       </c>
       <c r="F8" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.24063999999999999</v>
       </c>
       <c r="G8" s="7">
         <v>1.1000000000000001</v>
       </c>
       <c r="H8" s="7">
-        <f>B8*G8</f>
+        <f t="shared" si="0"/>
         <v>88</v>
       </c>
     </row>
@@ -1696,4 +1710,308 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2817024-6C53-47E1-985E-D5CB5293E887}">
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="52.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="7">
+        <v>60</v>
+      </c>
+      <c r="C2" s="8">
+        <v>14</v>
+      </c>
+      <c r="D2" s="7">
+        <f>B2*C2</f>
+        <v>840</v>
+      </c>
+      <c r="E2" s="7">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="F2" s="7">
+        <f>B2*E2</f>
+        <v>0.15</v>
+      </c>
+      <c r="G2" s="7">
+        <v>1.08</v>
+      </c>
+      <c r="H2" s="7">
+        <f t="shared" ref="H2:H8" si="0">B2*G2</f>
+        <v>64.800000000000011</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="7">
+        <v>2</v>
+      </c>
+      <c r="C3" s="8">
+        <v>15</v>
+      </c>
+      <c r="D3" s="7">
+        <f>B3*C3</f>
+        <v>30</v>
+      </c>
+      <c r="E3" s="7">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="F3" s="7">
+        <f>B3*E3</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G3" s="7">
+        <v>1.08</v>
+      </c>
+      <c r="H3" s="7">
+        <f t="shared" si="0"/>
+        <v>2.16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="7">
+        <v>2</v>
+      </c>
+      <c r="C4" s="8">
+        <v>15</v>
+      </c>
+      <c r="D4" s="7">
+        <f>B4*C4</f>
+        <v>30</v>
+      </c>
+      <c r="E4" s="7">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="F4" s="7">
+        <f>B4*E4</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G4" s="7">
+        <v>1.08</v>
+      </c>
+      <c r="H4" s="7">
+        <f t="shared" si="0"/>
+        <v>2.16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="7">
+        <v>2</v>
+      </c>
+      <c r="C5" s="8">
+        <v>15</v>
+      </c>
+      <c r="D5" s="7">
+        <f>B5*C5</f>
+        <v>30</v>
+      </c>
+      <c r="E5" s="7">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="F5" s="7">
+        <f>B5*E5</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G5" s="7">
+        <v>1.08</v>
+      </c>
+      <c r="H5" s="7">
+        <f t="shared" si="0"/>
+        <v>2.16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="7">
+        <v>2</v>
+      </c>
+      <c r="C6" s="8">
+        <v>15</v>
+      </c>
+      <c r="D6" s="7">
+        <f>B6*C6</f>
+        <v>30</v>
+      </c>
+      <c r="E6" s="7">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="F6" s="7">
+        <f>B6*E6</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G6" s="7">
+        <v>1.08</v>
+      </c>
+      <c r="H6" s="7">
+        <f t="shared" si="0"/>
+        <v>2.16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="7">
+        <v>30</v>
+      </c>
+      <c r="C7" s="8">
+        <v>29</v>
+      </c>
+      <c r="D7" s="7">
+        <f t="shared" ref="D7:D10" si="1">B7*C7</f>
+        <v>870</v>
+      </c>
+      <c r="E7" s="7">
+        <v>1.281E-2</v>
+      </c>
+      <c r="F7" s="7">
+        <f t="shared" ref="F7:F8" si="2">B7*E7</f>
+        <v>0.38430000000000003</v>
+      </c>
+      <c r="G7" s="7">
+        <v>7.35</v>
+      </c>
+      <c r="H7" s="7">
+        <f t="shared" si="0"/>
+        <v>220.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="7">
+        <v>100</v>
+      </c>
+      <c r="C8" s="8">
+        <v>5</v>
+      </c>
+      <c r="D8" s="7">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+      <c r="E8" s="7">
+        <v>3.0079999999999998E-3</v>
+      </c>
+      <c r="F8" s="7">
+        <f t="shared" si="2"/>
+        <v>0.30079999999999996</v>
+      </c>
+      <c r="G8" s="7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H8" s="7">
+        <f t="shared" si="0"/>
+        <v>110.00000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="7">
+        <v>1</v>
+      </c>
+      <c r="C9" s="7">
+        <v>220</v>
+      </c>
+      <c r="D9" s="7">
+        <f t="shared" si="1"/>
+        <v>220</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="10">
+        <v>10</v>
+      </c>
+      <c r="C10" s="11">
+        <v>3</v>
+      </c>
+      <c r="D10" s="10">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7">
+        <f>SUM(D2:D10)</f>
+        <v>2580</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7">
+        <f>SUM(F2:F8)</f>
+        <v>0.85509999999999997</v>
+      </c>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7">
+        <f>SUM(H2:H8)</f>
+        <v>403.94</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/покупки/себестоимость.xlsx
+++ b/покупки/себестоимость.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\Ozon_upload\покупки\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29F01993-D7D8-41A4-94AD-48F2F1B37E3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BB9F40F-7247-46EC-B95F-5009319A020C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1717,7 +1717,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/покупки/себестоимость.xlsx
+++ b/покупки/себестоимость.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\Ozon_upload\покупки\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BB9F40F-7247-46EC-B95F-5009319A020C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BDD09C5-BF77-4C1F-A67F-B7BC9D92EF12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="07.05.2025" sheetId="3" r:id="rId3"/>
     <sheet name="01.07.2025" sheetId="4" r:id="rId4"/>
     <sheet name="25.07.2025" sheetId="5" r:id="rId5"/>
+    <sheet name="Лист3" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="64">
   <si>
     <t>Pet Film, 60cm*100m</t>
   </si>
@@ -239,6 +240,9 @@
   </si>
   <si>
     <t>Cleaning Solution</t>
+  </si>
+  <si>
+    <t>Order Max Uzkikh 05.09.2025</t>
   </si>
 </sst>
 </file>
@@ -1716,8 +1720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2817024-6C53-47E1-985E-D5CB5293E887}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="A1:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2014,4 +2018,289 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{703C2A18-FB54-4514-8CB3-CCE20B356973}">
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="7">
+        <v>80</v>
+      </c>
+      <c r="C2" s="8">
+        <v>14</v>
+      </c>
+      <c r="D2" s="7">
+        <f>B2*C2</f>
+        <v>1120</v>
+      </c>
+      <c r="E2" s="7">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="F2" s="7">
+        <f>B2*E2</f>
+        <v>0.2</v>
+      </c>
+      <c r="G2" s="7">
+        <v>1.08</v>
+      </c>
+      <c r="H2" s="7">
+        <f t="shared" ref="H2:H8" si="0">B2*G2</f>
+        <v>86.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="7">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8">
+        <v>15</v>
+      </c>
+      <c r="D3" s="7">
+        <f>B3*C3</f>
+        <v>15</v>
+      </c>
+      <c r="E3" s="7">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="F3" s="7">
+        <f>B3*E3</f>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="G3" s="7">
+        <v>1.08</v>
+      </c>
+      <c r="H3" s="7">
+        <f t="shared" si="0"/>
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="7">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8">
+        <v>15</v>
+      </c>
+      <c r="D4" s="7">
+        <f>B4*C4</f>
+        <v>15</v>
+      </c>
+      <c r="E4" s="7">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="F4" s="7">
+        <f>B4*E4</f>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="G4" s="7">
+        <v>1.08</v>
+      </c>
+      <c r="H4" s="7">
+        <f t="shared" si="0"/>
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="7">
+        <v>1</v>
+      </c>
+      <c r="C5" s="8">
+        <v>15</v>
+      </c>
+      <c r="D5" s="7">
+        <f>B5*C5</f>
+        <v>15</v>
+      </c>
+      <c r="E5" s="7">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="F5" s="7">
+        <f>B5*E5</f>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="G5" s="7">
+        <v>1.08</v>
+      </c>
+      <c r="H5" s="7">
+        <f t="shared" si="0"/>
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="7">
+        <v>1</v>
+      </c>
+      <c r="C6" s="8">
+        <v>15</v>
+      </c>
+      <c r="D6" s="7">
+        <f>B6*C6</f>
+        <v>15</v>
+      </c>
+      <c r="E6" s="7">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="F6" s="7">
+        <f>B6*E6</f>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="G6" s="7">
+        <v>1.08</v>
+      </c>
+      <c r="H6" s="7">
+        <f t="shared" si="0"/>
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="7">
+        <v>36</v>
+      </c>
+      <c r="C7" s="8">
+        <v>29</v>
+      </c>
+      <c r="D7" s="7">
+        <f t="shared" ref="D7:D9" si="1">B7*C7</f>
+        <v>1044</v>
+      </c>
+      <c r="E7" s="7">
+        <v>1.281E-2</v>
+      </c>
+      <c r="F7" s="7">
+        <f t="shared" ref="F7:F8" si="2">B7*E7</f>
+        <v>0.46116000000000001</v>
+      </c>
+      <c r="G7" s="7">
+        <v>7.35</v>
+      </c>
+      <c r="H7" s="7">
+        <f t="shared" si="0"/>
+        <v>264.59999999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="7">
+        <v>120</v>
+      </c>
+      <c r="C8" s="8">
+        <v>5</v>
+      </c>
+      <c r="D8" s="7">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
+      <c r="E8" s="7">
+        <v>3.0079999999999998E-3</v>
+      </c>
+      <c r="F8" s="7">
+        <f t="shared" si="2"/>
+        <v>0.36096</v>
+      </c>
+      <c r="G8" s="7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H8" s="7">
+        <f t="shared" si="0"/>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="10">
+        <v>6</v>
+      </c>
+      <c r="C9" s="11">
+        <v>3</v>
+      </c>
+      <c r="D9" s="10">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7">
+        <f>SUM(D2:D9)</f>
+        <v>2842</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7">
+        <f>SUM(F2:F8)</f>
+        <v>1.0321199999999999</v>
+      </c>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7">
+        <f>SUM(H2:H8)</f>
+        <v>487.31999999999994</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/покупки/себестоимость.xlsx
+++ b/покупки/себестоимость.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\Ozon_upload\покупки\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BDD09C5-BF77-4C1F-A67F-B7BC9D92EF12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{720E682B-0F9B-451A-B979-0DA3EDA3E841}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
-    <sheet name="07.05.2025" sheetId="3" r:id="rId3"/>
-    <sheet name="01.07.2025" sheetId="4" r:id="rId4"/>
-    <sheet name="25.07.2025" sheetId="5" r:id="rId5"/>
-    <sheet name="Лист3" sheetId="6" r:id="rId6"/>
+    <sheet name="Лист4" sheetId="7" r:id="rId2"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId3"/>
+    <sheet name="07.05.2025" sheetId="3" r:id="rId4"/>
+    <sheet name="01.07.2025" sheetId="4" r:id="rId5"/>
+    <sheet name="25.07.2025" sheetId="5" r:id="rId6"/>
+    <sheet name="Лист3" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="63">
   <si>
     <t>Pet Film, 60cm*100m</t>
   </si>
@@ -141,27 +142,6 @@
     <t>pcs in roll</t>
   </si>
   <si>
-    <t>cost 530-550pcs</t>
-  </si>
-  <si>
-    <t>delivery</t>
-  </si>
-  <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>Filters for Air Purifier Model: S1002</t>
-  </si>
-  <si>
-    <t>Print head: XP600</t>
-  </si>
-  <si>
-    <t>Pet Film, 30cm*100m</t>
-  </si>
-  <si>
-    <t>CMYK ink</t>
-  </si>
-  <si>
     <t>amount</t>
   </si>
   <si>
@@ -243,13 +223,31 @@
   </si>
   <si>
     <t>Order Max Uzkikh 05.09.2025</t>
+  </si>
+  <si>
+    <t>из москвы</t>
+  </si>
+  <si>
+    <t>количество</t>
+  </si>
+  <si>
+    <t>итого</t>
+  </si>
+  <si>
+    <t>Клей порошок</t>
+  </si>
+  <si>
+    <t>DTF краски Белый</t>
+  </si>
+  <si>
+    <t>Пленка, 60cm*100m</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -277,13 +275,28 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -313,7 +326,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -344,6 +357,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -627,7 +642,7 @@
   <dimension ref="A1:L42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -677,28 +692,28 @@
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C2">
         <v>8</v>
       </c>
       <c r="D2">
         <f>E2*C2</f>
-        <v>20.8</v>
-      </c>
-      <c r="E2">
-        <v>2.6</v>
+        <v>13.6</v>
+      </c>
+      <c r="E2" s="13">
+        <v>1.7</v>
       </c>
       <c r="F2">
         <f>B2+D2</f>
-        <v>55.8</v>
+        <v>42.6</v>
       </c>
       <c r="G2">
         <v>90</v>
       </c>
       <c r="H2">
         <f>F2*G2</f>
-        <v>5022</v>
+        <v>3834</v>
       </c>
       <c r="J2" t="s">
         <v>0</v>
@@ -708,7 +723,7 @@
       </c>
       <c r="L2">
         <f>K2*H2</f>
-        <v>5022</v>
+        <v>3834</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -716,28 +731,28 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D4" si="0">E3*C3</f>
-        <v>2.6</v>
-      </c>
-      <c r="E3">
-        <v>2.6</v>
+        <v>1.7</v>
+      </c>
+      <c r="E3" s="13">
+        <v>1.7</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F4" si="1">B3+D3</f>
-        <v>19.600000000000001</v>
+        <v>15.7</v>
       </c>
       <c r="G3">
         <v>90</v>
       </c>
       <c r="H3">
         <f>F3*G3</f>
-        <v>1764.0000000000002</v>
+        <v>1413</v>
       </c>
       <c r="J3" t="s">
         <v>1</v>
@@ -747,7 +762,7 @@
       </c>
       <c r="L3">
         <f t="shared" ref="L3:L4" si="2">K3*H3</f>
-        <v>5292.0000000000009</v>
+        <v>4239</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -755,28 +770,28 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
-        <v>2.6</v>
-      </c>
-      <c r="E4">
-        <v>2.6</v>
+        <v>1.7</v>
+      </c>
+      <c r="E4" s="13">
+        <v>1.7</v>
       </c>
       <c r="F4">
         <f t="shared" si="1"/>
-        <v>8.6</v>
+        <v>6.7</v>
       </c>
       <c r="G4">
         <v>90</v>
       </c>
       <c r="H4">
         <f>F4*G4</f>
-        <v>774</v>
+        <v>603</v>
       </c>
       <c r="J4" t="s">
         <v>2</v>
@@ -786,7 +801,7 @@
       </c>
       <c r="L4">
         <f t="shared" si="2"/>
-        <v>3096</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -803,7 +818,7 @@
       </c>
       <c r="L6">
         <f>SUM(L2:L4)/K5</f>
-        <v>13.41</v>
+        <v>10.484999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -822,139 +837,115 @@
         <v>1000</v>
       </c>
     </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>57</v>
+      </c>
+    </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
       <c r="B11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" t="s">
-        <v>37</v>
+        <v>3</v>
+      </c>
+      <c r="E11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K11" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="B12" s="1">
+        <v>4800</v>
+      </c>
+      <c r="H12">
+        <f>B12</f>
+        <v>4800</v>
+      </c>
+      <c r="J12" t="s">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1">
         <v>1</v>
       </c>
-      <c r="C12" s="1">
-        <v>17</v>
-      </c>
-      <c r="D12">
-        <f>B12*C12</f>
-        <v>17</v>
+      <c r="L12">
+        <f>K12*H12</f>
+        <v>4800</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>1</v>
       </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
-      <c r="C13" s="1">
-        <v>17</v>
-      </c>
-      <c r="D13">
-        <f>B13*C13</f>
-        <v>34</v>
+      <c r="B13" s="1">
+        <v>2400</v>
+      </c>
+      <c r="H13">
+        <f>B13</f>
+        <v>2400</v>
+      </c>
+      <c r="J13" t="s">
+        <v>1</v>
+      </c>
+      <c r="K13" s="1">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <f t="shared" ref="L13:L14" si="3">K13*H13</f>
+        <v>7200</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>2</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="1">
+        <v>930</v>
+      </c>
+      <c r="H14">
+        <f>B14</f>
+        <v>930</v>
+      </c>
+      <c r="J14" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="1">
-        <v>6</v>
-      </c>
-      <c r="D14">
-        <f>B14*C14</f>
+      <c r="K14" s="1">
+        <v>4</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="3"/>
+        <v>3720</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C15" s="1"/>
+      <c r="J15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K15" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C16" s="1"/>
+      <c r="J16" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15" s="1">
-        <v>19</v>
-      </c>
-      <c r="D15">
-        <f>B15*C15</f>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16">
-        <f>1/43</f>
-        <v>2.3255813953488372E-2</v>
-      </c>
-      <c r="C16" s="1">
-        <v>200</v>
-      </c>
-      <c r="D16">
-        <f>ROUND(B16*C16,0)</f>
-        <v>5</v>
+      <c r="L16">
+        <f>SUM(L12:L14)/K15</f>
+        <v>15.72</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17">
-        <v>6</v>
-      </c>
       <c r="C17" s="1"/>
-      <c r="D17">
-        <f>B17*C17</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18">
-        <f>SUM(D12:D17)</f>
-        <v>87</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>30</v>
-      </c>
-      <c r="D20">
-        <f>(D18*D19)/550</f>
-        <v>0.23727272727272727</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -1095,7 +1086,7 @@
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
         <f>D20*100+H36+A40+B33</f>
-        <v>33.30970515970516</v>
+        <v>9.5824324324324319</v>
       </c>
     </row>
   </sheetData>
@@ -1104,6 +1095,92 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C7AC9E0-A81F-42E4-907B-79F23BEE6641}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.42578125" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="7"/>
+      <c r="B1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="8">
+        <v>4500</v>
+      </c>
+      <c r="C2" s="7">
+        <v>10</v>
+      </c>
+      <c r="D2" s="7">
+        <f>B2*C2</f>
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="8">
+        <v>2400</v>
+      </c>
+      <c r="C3" s="7">
+        <v>20</v>
+      </c>
+      <c r="D3" s="7">
+        <f>B3*C3</f>
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="8">
+        <v>930</v>
+      </c>
+      <c r="C4" s="7">
+        <v>50</v>
+      </c>
+      <c r="D4" s="7">
+        <f>B4*C4</f>
+        <v>46500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="12">
+        <f>SUM(D2:D4)</f>
+        <v>139500</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="257" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF2D480-7B92-43D5-BA6D-FC174D0FE1B1}">
   <dimension ref="A1:O4"/>
   <sheetViews>
@@ -1125,36 +1202,36 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O1" t="s">
         <v>42</v>
-      </c>
-      <c r="H1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K1" t="s">
-        <v>46</v>
-      </c>
-      <c r="L1" t="s">
-        <v>47</v>
-      </c>
-      <c r="O1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B2">
         <v>20</v>
@@ -1226,7 +1303,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -1265,12 +1342,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{268E0AD0-41C1-4BE2-B5AE-4F6D39A38DED}">
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H6"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1284,33 +1361,33 @@
   <sheetData>
     <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D1" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>44</v>
-      </c>
       <c r="H1" s="9" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B2" s="7">
         <v>79</v>
@@ -1339,7 +1416,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B3" s="7">
         <v>1</v>
@@ -1397,7 +1474,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B5" s="7">
         <v>100</v>
@@ -1448,7 +1525,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86D1632C-ED0D-4846-AA0B-3BC8480B4571}">
   <dimension ref="A1:H9"/>
   <sheetViews>
@@ -1465,33 +1542,33 @@
   <sheetData>
     <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D1" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>44</v>
-      </c>
       <c r="H1" s="9" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B2" s="7">
         <v>40</v>
@@ -1520,7 +1597,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B3" s="7">
         <v>2</v>
@@ -1549,7 +1626,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B4" s="7">
         <v>2</v>
@@ -1578,7 +1655,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B5" s="7">
         <v>2</v>
@@ -1607,7 +1684,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B6" s="7">
         <v>2</v>
@@ -1665,7 +1742,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B8" s="7">
         <v>80</v>
@@ -1716,7 +1793,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2817024-6C53-47E1-985E-D5CB5293E887}">
   <dimension ref="A1:H11"/>
   <sheetViews>
@@ -1731,33 +1808,33 @@
   <sheetData>
     <row r="1" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D1" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>44</v>
-      </c>
       <c r="H1" s="9" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B2" s="7">
         <v>60</v>
@@ -1786,7 +1863,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B3" s="7">
         <v>2</v>
@@ -1815,7 +1892,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B4" s="7">
         <v>2</v>
@@ -1844,7 +1921,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B5" s="7">
         <v>2</v>
@@ -1873,7 +1950,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B6" s="7">
         <v>2</v>
@@ -1931,7 +2008,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B8" s="7">
         <v>100</v>
@@ -1960,7 +2037,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B9" s="7">
         <v>1</v>
@@ -1979,7 +2056,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B10" s="10">
         <v>10</v>
@@ -2020,12 +2097,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{703C2A18-FB54-4514-8CB3-CCE20B356973}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2035,33 +2112,33 @@
   <sheetData>
     <row r="1" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D1" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>44</v>
-      </c>
       <c r="H1" s="9" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B2" s="7">
         <v>80</v>
@@ -2090,7 +2167,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B3" s="7">
         <v>1</v>
@@ -2119,7 +2196,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B4" s="7">
         <v>1</v>
@@ -2148,7 +2225,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B5" s="7">
         <v>1</v>
@@ -2177,7 +2254,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B6" s="7">
         <v>1</v>
@@ -2235,7 +2312,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B8" s="7">
         <v>120</v>
@@ -2264,7 +2341,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B9" s="10">
         <v>6</v>
